--- a/assets/FYP- Data.xlsx
+++ b/assets/FYP- Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WELCOME\Desktop\FYP\Badminton-Raptor-API\assets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD82A9B-C005-4961-ACF5-C56DC94519FB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="24" windowWidth="22980" windowHeight="9264"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="296">
   <si>
     <t>Racquet</t>
   </si>
@@ -909,9 +915,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="_-[$MYR]\ * #,##0.00_-;\-[$MYR]\ * #,##0.00_-;_-[$MYR]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$MYR]\ * #,##0.00_-;\-[$MYR]\ * #,##0.00_-;_-[$MYR]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -986,14 +992,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1003,6 +1009,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1051,7 +1060,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1084,9 +1093,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1119,6 +1145,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1294,54 +1337,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+    </row>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1369,14 +1412,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>839.9</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F4" t="s">
@@ -1404,14 +1447,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>899.9</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F5" t="s">
@@ -1439,14 +1482,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>769</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="F6" t="s">
@@ -1474,14 +1517,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>309.89999999999998</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F7" t="s">
@@ -1490,6 +1533,9 @@
       <c r="G7" t="s">
         <v>34</v>
       </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
@@ -1506,14 +1552,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>419.9</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F8" t="s">
@@ -1541,30 +1587,30 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>126</v>
       </c>
       <c r="E11" s="2">
@@ -1574,11 +1620,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>120</v>
       </c>
       <c r="E12" s="2">
@@ -1588,11 +1634,11 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>98</v>
       </c>
       <c r="E13" s="2">
@@ -1602,11 +1648,11 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>64.89</v>
       </c>
       <c r="E14" s="2">
@@ -1616,11 +1662,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>61.9</v>
       </c>
       <c r="E15" s="2">
@@ -1630,19 +1676,19 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1652,14 +1698,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>589</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>56</v>
       </c>
       <c r="F18" t="s">
@@ -1669,14 +1715,14 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>559.9</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>61</v>
       </c>
       <c r="F19" t="s">
@@ -1686,14 +1732,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>459</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F20" t="s">
@@ -1703,14 +1749,14 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>719</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F21" t="s">
@@ -1720,14 +1766,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>779.9</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="8" t="s">
         <v>73</v>
       </c>
       <c r="F22" t="s">
@@ -1737,19 +1783,19 @@
         <v>75</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -1765,14 +1811,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>519.9</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>82</v>
       </c>
       <c r="F25" t="s">
@@ -1788,14 +1834,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>569</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>88</v>
       </c>
       <c r="F26" t="s">
@@ -1811,14 +1857,14 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>90</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>529</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>91</v>
       </c>
       <c r="F27" t="s">
@@ -1834,14 +1880,14 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>93</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>519.9</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E28" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F28" t="s">
@@ -1857,14 +1903,14 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>419.9</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>96</v>
       </c>
       <c r="F29" t="s">
@@ -1880,196 +1926,196 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>252</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>132.9</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F32" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>253</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <v>64.900000000000006</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>167</v>
       </c>
       <c r="F33" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>254</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>229.9</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>256</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>74.900000000000006</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>258</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>179.9</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C38" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>45</v>
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>294</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="4">
         <v>269.89999999999998</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>295</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="4">
         <v>129</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>288</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="4">
         <v>31</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="8" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>290</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="4">
         <v>49</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>292</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="4">
         <v>55</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="E43" s="8" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" s="4" t="s">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C47" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -2097,14 +2143,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>100</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="4">
         <v>359</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E48" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F48" t="s">
@@ -2129,14 +2175,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>105</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="4">
         <v>859</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="8" t="s">
         <v>107</v>
       </c>
       <c r="F49" t="s">
@@ -2164,14 +2210,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>116</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="4">
         <v>980</v>
       </c>
-      <c r="E50" s="9" t="s">
+      <c r="E50" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F50" t="s">
@@ -2199,14 +2245,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>115</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="4">
         <v>360</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="E51" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F51" t="s">
@@ -2231,14 +2277,14 @@
         <v>104</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="4">
         <v>729</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="E52" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F52" t="s">
@@ -2263,108 +2309,108 @@
         <v>104</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C54" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="E54" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>128</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="4">
         <v>89</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="8">
         <v>12</v>
       </c>
       <c r="F55" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>129</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="4">
         <v>109</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="8">
         <v>12</v>
       </c>
       <c r="F56" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>132</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="4">
         <v>119</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="8">
         <v>12</v>
       </c>
       <c r="F57" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>134</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="4">
         <v>99</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <v>12</v>
       </c>
       <c r="F58" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>136</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="4">
         <v>139</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="8">
         <v>12</v>
       </c>
       <c r="F59" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C61" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="9" t="s">
+      <c r="E61" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="2" t="s">
@@ -2374,17 +2420,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>139</v>
       </c>
       <c r="C62" t="s">
         <v>138</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="4">
         <v>699</v>
       </c>
-      <c r="E62" s="9" t="s">
+      <c r="E62" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F62" t="s">
@@ -2394,14 +2440,14 @@
         <v>141</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>142</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="4">
         <v>499</v>
       </c>
-      <c r="E63" s="9" t="s">
+      <c r="E63" s="8" t="s">
         <v>143</v>
       </c>
       <c r="F63" t="s">
@@ -2411,14 +2457,14 @@
         <v>144</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>146</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="4">
         <v>459</v>
       </c>
-      <c r="E64" s="9" t="s">
+      <c r="E64" s="8" t="s">
         <v>147</v>
       </c>
       <c r="F64" t="s">
@@ -2428,14 +2474,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>150</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="4">
         <v>359</v>
       </c>
-      <c r="E65" s="9" t="s">
+      <c r="E65" s="8" t="s">
         <v>147</v>
       </c>
       <c r="F65" t="s">
@@ -2445,14 +2491,14 @@
         <v>152</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>153</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="4">
         <v>329</v>
       </c>
-      <c r="E66" s="9" t="s">
+      <c r="E66" s="8" t="s">
         <v>154</v>
       </c>
       <c r="F66" t="s">
@@ -2462,19 +2508,19 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C68" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="2" t="s">
@@ -2490,14 +2536,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>157</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="4">
         <v>499</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="E69" s="8" t="s">
         <v>158</v>
       </c>
       <c r="F69" t="s">
@@ -2513,14 +2559,14 @@
         <v>159</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>160</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="4">
         <v>799</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="E70" s="8" t="s">
         <v>161</v>
       </c>
       <c r="F70" t="s">
@@ -2536,14 +2582,14 @@
         <v>162</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>163</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="4">
         <v>699</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="E71" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F71" t="s">
@@ -2559,14 +2605,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>166</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="4">
         <v>329</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="E72" s="8" t="s">
         <v>167</v>
       </c>
       <c r="F72" t="s">
@@ -2582,14 +2628,14 @@
         <v>168</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>169</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="4">
         <v>429</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="E73" s="8" t="s">
         <v>167</v>
       </c>
       <c r="F73" t="s">
@@ -2601,199 +2647,199 @@
       <c r="H73" t="s">
         <v>85</v>
       </c>
-      <c r="I73" s="6" t="s">
+      <c r="I73" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C75" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E75" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>260</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="4">
         <v>229</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E76" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F76" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>261</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="4">
         <v>239</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E77" s="8" t="s">
         <v>167</v>
       </c>
       <c r="F77" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>262</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="4">
         <v>299</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E78" s="8" t="s">
         <v>217</v>
       </c>
       <c r="F78" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>263</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="4">
         <v>299</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E79" s="8" t="s">
         <v>250</v>
       </c>
       <c r="F79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
         <v>264</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="4">
         <v>239</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E80" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F80" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C82" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E82" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
         <v>266</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="4">
         <v>48</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E83" s="8" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
         <v>268</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="4">
         <v>15</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E84" s="8" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>270</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="4">
         <v>59</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E85" s="8" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>275</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="4">
         <v>39</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E86" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
         <v>273</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="4">
         <v>89</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E87" s="8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B89" s="4" t="s">
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B89" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C91" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E91" s="9" t="s">
+      <c r="E91" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F91" s="2" t="s">
@@ -2821,14 +2867,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
         <v>173</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="4">
         <v>475</v>
       </c>
-      <c r="E92" s="9" t="s">
+      <c r="E92" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F92" t="s">
@@ -2853,14 +2899,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
         <v>179</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="4">
         <v>1050</v>
       </c>
-      <c r="E93" s="9" t="s">
+      <c r="E93" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F93" t="s">
@@ -2885,14 +2931,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
         <v>183</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="4">
         <v>950</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="E94" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F94" t="s">
@@ -2917,14 +2963,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
         <v>186</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="4">
         <v>249</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="E95" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F95" t="s">
@@ -2949,14 +2995,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
         <v>189</v>
       </c>
-      <c r="D96" s="5">
+      <c r="D96" s="4">
         <v>249</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="E96" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F96" t="s">
@@ -2981,108 +3027,108 @@
         <v>178</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C98" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="E98" s="8" t="s">
         <v>43</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
         <v>193</v>
       </c>
-      <c r="D99" s="5">
+      <c r="D99" s="4">
         <v>48</v>
       </c>
-      <c r="E99" s="9">
+      <c r="E99" s="8">
         <v>12</v>
       </c>
       <c r="F99" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C100" t="s">
         <v>195</v>
       </c>
-      <c r="D100" s="5">
+      <c r="D100" s="4">
         <v>115</v>
       </c>
-      <c r="E100" s="9">
+      <c r="E100" s="8">
         <v>12</v>
       </c>
       <c r="F100" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C101" t="s">
         <v>197</v>
       </c>
-      <c r="D101" s="5">
+      <c r="D101" s="4">
         <v>73</v>
       </c>
-      <c r="E101" s="9">
+      <c r="E101" s="8">
         <v>12</v>
       </c>
       <c r="F101" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C102" t="s">
         <v>199</v>
       </c>
-      <c r="D102" s="5">
+      <c r="D102" s="4">
         <v>119</v>
       </c>
-      <c r="E102" s="9">
+      <c r="E102" s="8">
         <v>12</v>
       </c>
       <c r="F102" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C103" t="s">
         <v>201</v>
       </c>
-      <c r="D103" s="5">
+      <c r="D103" s="4">
         <v>30</v>
       </c>
-      <c r="E103" s="9">
+      <c r="E103" s="8">
         <v>3</v>
       </c>
       <c r="F103" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C105" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="E105" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F105" s="2" t="s">
@@ -3092,14 +3138,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
         <v>203</v>
       </c>
-      <c r="D106" s="5">
+      <c r="D106" s="4">
         <v>309</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="E106" s="8" t="s">
         <v>204</v>
       </c>
       <c r="F106" t="s">
@@ -3109,14 +3155,14 @@
         <v>206</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
         <v>207</v>
       </c>
-      <c r="D107" s="5">
+      <c r="D107" s="4">
         <v>288</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="E107" s="8" t="s">
         <v>204</v>
       </c>
       <c r="F107" t="s">
@@ -3126,14 +3172,14 @@
         <v>206</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
         <v>209</v>
       </c>
-      <c r="D108" s="5">
+      <c r="D108" s="4">
         <v>269</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="E108" s="8" t="s">
         <v>103</v>
       </c>
       <c r="F108" t="s">
@@ -3143,14 +3189,14 @@
         <v>211</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
         <v>212</v>
       </c>
-      <c r="D109" s="5">
+      <c r="D109" s="4">
         <v>249</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="E109" s="8" t="s">
         <v>213</v>
       </c>
       <c r="F109" t="s">
@@ -3160,14 +3206,14 @@
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
         <v>216</v>
       </c>
-      <c r="D110" s="5">
+      <c r="D110" s="4">
         <v>389</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="E110" s="8" t="s">
         <v>217</v>
       </c>
       <c r="F110" t="s">
@@ -3177,19 +3223,19 @@
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C112" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="E112" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F112" s="2" t="s">
@@ -3205,14 +3251,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C113" t="s">
         <v>220</v>
       </c>
-      <c r="D113" s="5">
+      <c r="D113" s="4">
         <v>619</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="8" t="s">
         <v>167</v>
       </c>
       <c r="F113" t="s">
@@ -3228,14 +3274,14 @@
         <v>224</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C114" t="s">
         <v>225</v>
       </c>
-      <c r="D114" s="5">
+      <c r="D114" s="4">
         <v>265</v>
       </c>
-      <c r="E114" s="9" t="s">
+      <c r="E114" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F114" t="s">
@@ -3251,14 +3297,14 @@
         <v>229</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C115" t="s">
         <v>230</v>
       </c>
-      <c r="D115" s="5">
+      <c r="D115" s="4">
         <v>459</v>
       </c>
-      <c r="E115" s="9" t="s">
+      <c r="E115" s="8" t="s">
         <v>123</v>
       </c>
       <c r="F115" t="s">
@@ -3274,14 +3320,14 @@
         <v>232</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C116" t="s">
         <v>233</v>
       </c>
-      <c r="D116" s="5">
+      <c r="D116" s="4">
         <v>292</v>
       </c>
-      <c r="E116" s="9" t="s">
+      <c r="E116" s="8" t="s">
         <v>167</v>
       </c>
       <c r="F116" t="s">
@@ -3297,14 +3343,14 @@
         <v>236</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C117" t="s">
         <v>237</v>
       </c>
-      <c r="D117" s="5">
+      <c r="D117" s="4">
         <v>449</v>
       </c>
-      <c r="E117" s="9" t="s">
+      <c r="E117" s="8" t="s">
         <v>167</v>
       </c>
       <c r="F117" t="s">
@@ -3320,163 +3366,163 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C119" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E119" s="9" t="s">
+      <c r="E119" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
         <v>246</v>
       </c>
-      <c r="D120" s="5">
+      <c r="D120" s="4">
         <v>93</v>
       </c>
-      <c r="E120" s="9" t="s">
+      <c r="E120" s="8" t="s">
         <v>244</v>
       </c>
       <c r="F120" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
         <v>245</v>
       </c>
-      <c r="D121" s="5">
+      <c r="D121" s="4">
         <v>93</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="E121" s="8" t="s">
         <v>167</v>
       </c>
       <c r="F121" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
         <v>247</v>
       </c>
-      <c r="D122" s="5">
+      <c r="D122" s="4">
         <v>93</v>
       </c>
-      <c r="E122" s="9" t="s">
+      <c r="E122" s="8" t="s">
         <v>65</v>
       </c>
       <c r="F122" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
         <v>248</v>
       </c>
-      <c r="D123" s="5">
+      <c r="D123" s="4">
         <v>66</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E123" s="8" t="s">
         <v>164</v>
       </c>
       <c r="F123" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
         <v>249</v>
       </c>
-      <c r="D124" s="5">
+      <c r="D124" s="4">
         <v>189</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E124" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F124" s="6" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C126" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="E126" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C127" t="s">
         <v>276</v>
       </c>
-      <c r="D127" s="5">
+      <c r="D127" s="4">
         <v>14.72</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="E127" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C128" t="s">
         <v>278</v>
       </c>
-      <c r="D128" s="5">
+      <c r="D128" s="4">
         <v>21.9</v>
       </c>
-      <c r="E128" s="9" t="s">
+      <c r="E128" s="8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="129" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C129" t="s">
         <v>280</v>
       </c>
-      <c r="D129" s="5">
+      <c r="D129" s="4">
         <v>100.28</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="E129" s="8" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="130" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C130" t="s">
         <v>282</v>
       </c>
-      <c r="D130" s="5">
+      <c r="D130" s="4">
         <v>33.119999999999997</v>
       </c>
-      <c r="E130" s="9" t="s">
+      <c r="E130" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="131" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C131" t="s">
         <v>284</v>
       </c>
-      <c r="D131" s="5">
+      <c r="D131" s="4">
         <v>19</v>
       </c>
-      <c r="E131" s="9" t="s">
+      <c r="E131" s="8" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3492,24 +3538,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
